--- a/POMtrain/Data/IrctcExcel.xlsx
+++ b/POMtrain/Data/IrctcExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>UserName</t>
   </si>
@@ -28,6 +28,30 @@
   </si>
   <si>
     <t>pravinsri</t>
+  </si>
+  <si>
+    <t>EnterFrom</t>
+  </si>
+  <si>
+    <t>EnterTo</t>
+  </si>
+  <si>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>EnterClass</t>
+  </si>
+  <si>
+    <t>Sleeper (SL)</t>
+  </si>
+  <si>
+    <t>CHENNAI EGMORE - MS</t>
+  </si>
+  <si>
+    <t>MADURAI JN - MDU</t>
+  </si>
+  <si>
+    <t>22-07-2019</t>
   </si>
 </sst>
 </file>
@@ -63,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,31 +391,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
